--- a/Base de datos.xlsx
+++ b/Base de datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanguallasamin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3027895-7636-C946-94C5-3D511BADD752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1500660-E02B-904B-885B-7FF3A05ACAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="29400" windowHeight="17380" xr2:uid="{EDD2A201-8F27-6A4E-8527-9746C2061AB5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>Indicador</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.1.1.Número de beneficiarios directos en proyectos de FARO </t>
-  </si>
-  <si>
-    <t>1.1.2.Número de proyectos implementados (incluir en cada proyecto si tienen aliados)</t>
   </si>
   <si>
     <t>1.1.3.Número de proyectos e iniciativas propias implementadas con enfoque de transformación social</t>
@@ -175,6 +172,93 @@
   </si>
   <si>
     <t>8.1.2 Porcentaje de colaboradores capacitados anualmente</t>
+  </si>
+  <si>
+    <t>IndicadorSimplificado</t>
+  </si>
+  <si>
+    <t>Beneficiarios Directos</t>
+  </si>
+  <si>
+    <t>Total Proyectos Implementados</t>
+  </si>
+  <si>
+    <t>1.1.2.Número de proyectos implementados</t>
+  </si>
+  <si>
+    <t>Proyectos de Transformación Social</t>
+  </si>
+  <si>
+    <t>Participación en Redes</t>
+  </si>
+  <si>
+    <t>Alianzas Internacionales</t>
+  </si>
+  <si>
+    <t>Alianzas Sector Privado</t>
+  </si>
+  <si>
+    <t>Alianzas Sector Público</t>
+  </si>
+  <si>
+    <t>Alianzas Sociedad Civil</t>
+  </si>
+  <si>
+    <t>Financiamiento Público</t>
+  </si>
+  <si>
+    <t>Financiamiento Privado</t>
+  </si>
+  <si>
+    <t>Entrega de Evidencia a tomadores de decisión</t>
+  </si>
+  <si>
+    <t>Influencia en Políticas Públicas</t>
+  </si>
+  <si>
+    <t>Programas Escalables</t>
+  </si>
+  <si>
+    <t>Engagement Digital</t>
+  </si>
+  <si>
+    <t>Tráfico y Retención Web</t>
+  </si>
+  <si>
+    <t>Citas y Menciones</t>
+  </si>
+  <si>
+    <t>Cobertura Periodística</t>
+  </si>
+  <si>
+    <t>Vocería en Eventos</t>
+  </si>
+  <si>
+    <t>Valorización Free Press</t>
+  </si>
+  <si>
+    <t>Reconocimiento de Marca</t>
+  </si>
+  <si>
+    <t>Alcance Free Press</t>
+  </si>
+  <si>
+    <t>Índice de Sostenibilidad Financiera</t>
+  </si>
+  <si>
+    <t>Actualización de Repositorio</t>
+  </si>
+  <si>
+    <t>Calidad de Productos</t>
+  </si>
+  <si>
+    <t>Satisfacción Tecnológica</t>
+  </si>
+  <si>
+    <t>Desempeño del Personal</t>
+  </si>
+  <si>
+    <t>Capacitación Anual</t>
   </si>
 </sst>
 </file>
@@ -307,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -367,34 +451,50 @@
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,6 +754,7 @@
           </cell>
         </row>
         <row r="20">
+          <cell r="D20"/>
           <cell r="AA20">
             <v>0</v>
           </cell>
@@ -668,6 +769,7 @@
           </cell>
         </row>
         <row r="21">
+          <cell r="D21"/>
           <cell r="AA21">
             <v>2</v>
           </cell>
@@ -682,6 +784,7 @@
           </cell>
         </row>
         <row r="22">
+          <cell r="D22"/>
           <cell r="AA22">
             <v>0</v>
           </cell>
@@ -696,6 +799,7 @@
           </cell>
         </row>
         <row r="23">
+          <cell r="D23"/>
           <cell r="AA23">
             <v>0</v>
           </cell>
@@ -710,6 +814,7 @@
           </cell>
         </row>
         <row r="24">
+          <cell r="D24"/>
           <cell r="AA24">
             <v>3</v>
           </cell>
@@ -724,6 +829,7 @@
           </cell>
         </row>
         <row r="25">
+          <cell r="D25"/>
           <cell r="AA25">
             <v>0</v>
           </cell>
@@ -738,6 +844,7 @@
           </cell>
         </row>
         <row r="26">
+          <cell r="D26"/>
           <cell r="AA26">
             <v>0</v>
           </cell>
@@ -752,6 +859,7 @@
           </cell>
         </row>
         <row r="27">
+          <cell r="D27"/>
           <cell r="AA27">
             <v>0</v>
           </cell>
@@ -766,6 +874,7 @@
           </cell>
         </row>
         <row r="29">
+          <cell r="D29"/>
           <cell r="AA29">
             <v>1</v>
           </cell>
@@ -797,6 +906,7 @@
           </cell>
         </row>
         <row r="31">
+          <cell r="D31"/>
           <cell r="AA31">
             <v>0</v>
           </cell>
@@ -811,6 +921,7 @@
           </cell>
         </row>
         <row r="32">
+          <cell r="D32"/>
           <cell r="AA32">
             <v>0</v>
           </cell>
@@ -887,6 +998,8 @@
           <cell r="U9">
             <v>2</v>
           </cell>
+          <cell r="V9"/>
+          <cell r="W9"/>
         </row>
         <row r="10">
           <cell r="D10">
@@ -1076,6 +1189,7 @@
           </cell>
         </row>
         <row r="21">
+          <cell r="D21"/>
           <cell r="K21">
             <v>0</v>
           </cell>
@@ -1107,6 +1221,7 @@
           </cell>
         </row>
         <row r="23">
+          <cell r="D23"/>
           <cell r="K23">
             <v>0</v>
           </cell>
@@ -1121,11 +1236,16 @@
           </cell>
         </row>
         <row r="24">
+          <cell r="D24"/>
           <cell r="K24">
             <v>0</v>
           </cell>
+          <cell r="U24"/>
+          <cell r="V24"/>
+          <cell r="W24"/>
         </row>
         <row r="25">
+          <cell r="D25"/>
           <cell r="K25">
             <v>0</v>
           </cell>
@@ -1140,6 +1260,7 @@
           </cell>
         </row>
         <row r="26">
+          <cell r="D26"/>
           <cell r="K26">
             <v>0</v>
           </cell>
@@ -1154,6 +1275,7 @@
           </cell>
         </row>
         <row r="27">
+          <cell r="D27"/>
           <cell r="K27">
             <v>0</v>
           </cell>
@@ -1168,9 +1290,13 @@
           </cell>
         </row>
         <row r="29">
+          <cell r="D29"/>
           <cell r="K29">
             <v>0</v>
           </cell>
+          <cell r="U29"/>
+          <cell r="V29"/>
+          <cell r="W29"/>
         </row>
         <row r="30">
           <cell r="D30">
@@ -1179,8 +1305,12 @@
           <cell r="K30">
             <v>0</v>
           </cell>
+          <cell r="U30"/>
+          <cell r="V30"/>
+          <cell r="W30"/>
         </row>
         <row r="31">
+          <cell r="D31"/>
           <cell r="K31">
             <v>0</v>
           </cell>
@@ -1896,49 +2026,85 @@
           </cell>
         </row>
         <row r="20">
+          <cell r="D20"/>
           <cell r="N20">
             <v>0</v>
           </cell>
+          <cell r="X20"/>
+          <cell r="Y20"/>
+          <cell r="Z20"/>
         </row>
         <row r="21">
+          <cell r="D21"/>
           <cell r="N21">
             <v>0</v>
           </cell>
+          <cell r="X21"/>
+          <cell r="Y21"/>
+          <cell r="Z21"/>
         </row>
         <row r="22">
+          <cell r="D22"/>
           <cell r="N22">
             <v>1</v>
           </cell>
+          <cell r="X22"/>
+          <cell r="Y22"/>
+          <cell r="Z22"/>
         </row>
         <row r="23">
+          <cell r="D23"/>
           <cell r="N23">
             <v>2</v>
           </cell>
+          <cell r="X23"/>
+          <cell r="Y23"/>
+          <cell r="Z23"/>
         </row>
         <row r="24">
+          <cell r="D24"/>
           <cell r="N24">
             <v>2</v>
           </cell>
+          <cell r="X24"/>
+          <cell r="Y24"/>
+          <cell r="Z24"/>
         </row>
         <row r="25">
+          <cell r="D25"/>
           <cell r="N25">
             <v>0</v>
           </cell>
+          <cell r="X25"/>
+          <cell r="Y25"/>
+          <cell r="Z25"/>
         </row>
         <row r="26">
+          <cell r="D26"/>
           <cell r="N26">
             <v>0</v>
           </cell>
+          <cell r="X26"/>
+          <cell r="Y26"/>
+          <cell r="Z26"/>
         </row>
         <row r="27">
+          <cell r="D27"/>
           <cell r="N27">
             <v>0</v>
           </cell>
+          <cell r="X27"/>
+          <cell r="Y27"/>
+          <cell r="Z27"/>
         </row>
         <row r="29">
+          <cell r="D29"/>
           <cell r="N29">
             <v>0</v>
           </cell>
+          <cell r="X29"/>
+          <cell r="Y29"/>
+          <cell r="Z29"/>
         </row>
         <row r="30">
           <cell r="D30">
@@ -1947,16 +2113,27 @@
           <cell r="N30">
             <v>3</v>
           </cell>
+          <cell r="X30"/>
+          <cell r="Y30"/>
+          <cell r="Z30"/>
         </row>
         <row r="31">
+          <cell r="D31"/>
           <cell r="N31">
             <v>0</v>
           </cell>
+          <cell r="X31"/>
+          <cell r="Y31"/>
+          <cell r="Z31"/>
         </row>
         <row r="32">
+          <cell r="D32"/>
           <cell r="N32">
             <v>0</v>
           </cell>
+          <cell r="X32"/>
+          <cell r="Y32"/>
+          <cell r="Z32"/>
         </row>
         <row r="33">
           <cell r="D33">
@@ -2202,25 +2379,28 @@
   <dimension ref="A1:AG996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI5" sqref="AI5"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.1640625" customWidth="1"/>
-    <col min="2" max="8" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="33" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="30" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="22"/>
@@ -2228,7 +2408,7 @@
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="22"/>
@@ -2236,7 +2416,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="22"/>
@@ -2244,7 +2424,7 @@
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
       <c r="T1" s="22"/>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="V1" s="22"/>
@@ -2252,7 +2432,7 @@
       <c r="X1" s="22"/>
       <c r="Y1" s="22"/>
       <c r="Z1" s="22"/>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="AB1" s="22"/>
@@ -2263,8 +2443,8 @@
       <c r="AG1" s="1"/>
     </row>
     <row r="2" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2357,10 +2537,12 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="C3" s="4">
         <f>[1]IE!D4</f>
         <v>1234</v>
@@ -2453,10 +2635,12 @@
       <c r="AF3" s="6"/>
     </row>
     <row r="4" spans="1:33" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="22"/>
+      <c r="A4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="C4" s="4">
         <f>[1]IE!D8</f>
         <v>10</v>
@@ -2549,10 +2733,12 @@
       <c r="AF4" s="6"/>
     </row>
     <row r="5" spans="1:33" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="22"/>
+      <c r="A5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>42</v>
+      </c>
       <c r="C5" s="7">
         <f>[1]IE!D9</f>
         <v>7</v>
@@ -2645,10 +2831,12 @@
       <c r="AF5" s="9"/>
     </row>
     <row r="6" spans="1:33" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="22"/>
+      <c r="A6" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="C6" s="4">
         <f>[1]IE!D10</f>
         <v>2</v>
@@ -2741,10 +2929,12 @@
       <c r="AF6" s="6"/>
     </row>
     <row r="7" spans="1:33" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="22"/>
+      <c r="A7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="C7" s="7">
         <f>[1]IE!D11</f>
         <v>9</v>
@@ -2837,10 +3027,12 @@
       <c r="AF7" s="9"/>
     </row>
     <row r="8" spans="1:33" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="22"/>
+      <c r="A8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>45</v>
+      </c>
       <c r="C8" s="4">
         <f>[1]IE!D12</f>
         <v>1</v>
@@ -2933,10 +3125,12 @@
       <c r="AF8" s="6"/>
     </row>
     <row r="9" spans="1:33" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="22"/>
+      <c r="A9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="C9" s="7">
         <f>[1]IE!D13</f>
         <v>1</v>
@@ -3029,10 +3223,12 @@
       <c r="AF9" s="9"/>
     </row>
     <row r="10" spans="1:33" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="22"/>
+      <c r="A10" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="C10" s="4">
         <f>[1]IE!D14</f>
         <v>2</v>
@@ -3125,10 +3321,12 @@
       <c r="AF10" s="6"/>
     </row>
     <row r="11" spans="1:33" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="22"/>
+      <c r="A11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="C11" s="7">
         <f>[1]IE!D15</f>
         <v>0</v>
@@ -3221,10 +3419,12 @@
       <c r="AF11" s="9"/>
     </row>
     <row r="12" spans="1:33" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="22"/>
+      <c r="A12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>49</v>
+      </c>
       <c r="C12" s="4">
         <f>[1]IE!D16</f>
         <v>2</v>
@@ -3317,10 +3517,12 @@
       <c r="AF12" s="6"/>
     </row>
     <row r="13" spans="1:33" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="22"/>
+      <c r="A13" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>50</v>
+      </c>
       <c r="C13" s="7">
         <f>[1]IE!D17</f>
         <v>5</v>
@@ -3413,10 +3615,12 @@
       <c r="AF13" s="9"/>
     </row>
     <row r="14" spans="1:33" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="22"/>
+      <c r="A14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="C14" s="4">
         <f>[1]IE!D18</f>
         <v>1</v>
@@ -3509,10 +3713,12 @@
       <c r="AF14" s="6"/>
     </row>
     <row r="15" spans="1:33" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="22"/>
+      <c r="A15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="C15" s="7">
         <f>[1]IE!D19</f>
         <v>0</v>
@@ -3605,10 +3811,12 @@
       <c r="AF15" s="9"/>
     </row>
     <row r="16" spans="1:33" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="22"/>
+      <c r="A16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="C16" s="4">
         <f>[1]IE!D20</f>
         <v>0</v>
@@ -3711,10 +3919,12 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="22"/>
+      <c r="A17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="C17" s="7">
         <f>[1]IE!D21</f>
         <v>0</v>
@@ -3813,10 +4023,12 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="22"/>
+      <c r="A18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="C18" s="4">
         <f>[1]IE!D22</f>
         <v>0</v>
@@ -3919,10 +4131,12 @@
       </c>
     </row>
     <row r="19" spans="1:32" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="22"/>
+      <c r="A19" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="C19" s="7">
         <f>[1]IE!D23</f>
         <v>0</v>
@@ -4025,10 +4239,12 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="22"/>
+      <c r="A20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="C20" s="4">
         <f>[1]IE!D24</f>
         <v>0</v>
@@ -4131,10 +4347,12 @@
       </c>
     </row>
     <row r="21" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="22"/>
+      <c r="A21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="C21" s="7">
         <f>[1]IE!D25</f>
         <v>0</v>
@@ -4237,10 +4455,12 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="22"/>
+      <c r="A22" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="C22" s="4">
         <f>[1]IE!D26</f>
         <v>0</v>
@@ -4343,10 +4563,12 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="22"/>
+      <c r="A23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="C23" s="7">
         <f>[1]IE!D27</f>
         <v>0</v>
@@ -4449,10 +4671,12 @@
       </c>
     </row>
     <row r="24" spans="1:32" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="22"/>
+      <c r="A24" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -4495,10 +4719,12 @@
       <c r="AF24" s="6"/>
     </row>
     <row r="25" spans="1:32" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="22"/>
+      <c r="A25" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="C25" s="7">
         <f>[1]IE!D29</f>
         <v>0</v>
@@ -4591,10 +4817,12 @@
       <c r="AF25" s="9"/>
     </row>
     <row r="26" spans="1:32" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="22"/>
+      <c r="A26" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>63</v>
+      </c>
       <c r="C26" s="4">
         <f>[1]IE!D30</f>
         <v>1</v>
@@ -4687,10 +4915,12 @@
       <c r="AF26" s="6"/>
     </row>
     <row r="27" spans="1:32" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="22"/>
+      <c r="A27" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>64</v>
+      </c>
       <c r="C27" s="7">
         <f>[1]IE!D31</f>
         <v>0</v>
@@ -4794,10 +5024,12 @@
       <c r="AF27" s="9"/>
     </row>
     <row r="28" spans="1:32" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="22"/>
+      <c r="A28" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="C28" s="4">
         <f>[1]IE!D32</f>
         <v>0</v>
@@ -4901,10 +5133,12 @@
       <c r="AF28" s="6"/>
     </row>
     <row r="29" spans="1:32" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="22"/>
+      <c r="A29" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="C29" s="7">
         <f>[1]IE!D33</f>
         <v>0</v>
@@ -5997,40 +6231,12 @@
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="5">
     <mergeCell ref="AA1:AF1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
